--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiakang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Desktop\Team22-main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F8103A-A57A-904D-A206-BA62E1D5ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453812E6-C44B-428F-9A90-5BB8DD960212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -168,17 +168,35 @@
   <si>
     <t>Fixed</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>Shooting buckshot then press R may cause some stages to be gone</t>
+  </si>
+  <si>
+    <t>all statges should be there whenever R is pressed</t>
+  </si>
+  <si>
+    <t>as per description</t>
+  </si>
+  <si>
+    <t>not fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -186,14 +204,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -201,13 +219,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,7 +234,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,8 +290,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,28 +623,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="64">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,7 +676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="128">
+    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -693,7 +711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="112">
+    <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -727,6 +745,39 @@
       <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -740,9 +791,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -758,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -766,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -774,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -782,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -790,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
